--- a/Automation/runs/Critical_Path_Patient.xlsx
+++ b/Automation/runs/Critical_Path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Execute</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Windows 10</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>local</t>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,7 +744,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>43</v>
@@ -770,7 +767,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -792,7 +789,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -836,7 +833,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -847,7 +844,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -881,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_Path_Patient.xlsx
+++ b/Automation/runs/Critical_Path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Execute</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>threadCount</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -878,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,7 +999,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
